--- a/results/[16_expiring_support_res]_#_inv_capacity.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008039699513169421</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01367245478734805</v>
+        <v>0.009216388360670347</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1748580890751533</v>
+        <v>0.3881565890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375029</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5029367001714111</v>
+        <v>0.3866351</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2112802</v>
+        <v>0.5980458758222187</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06086267617589177</v>
+        <v>0.08407824999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>3.74121210408796</v>
+        <v>10.84655480891572</v>
       </c>
       <c r="O2" t="n">
-        <v>2.672533905045239</v>
+        <v>2.862907308505379</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3598400891073755</v>
+        <v>0.05356848075857206</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.06920837885335457</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.310098308979648</v>
+        <v>0.4138138</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.254565683161922</v>
+        <v>0.8506273458905896</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.533984616666666</v>
+        <v>0.1483279332818203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4455621571574416</v>
+        <v>0.1014180740827377</v>
       </c>
       <c r="N2" t="n">
-        <v>31.35920715565301</v>
+        <v>15.13001910209066</v>
       </c>
       <c r="O2" t="n">
-        <v>21.04174763494304</v>
+        <v>7.28386422727996</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_capacity.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009216388360670347</v>
+        <v>0.01031349999999998</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3881565890751533</v>
+        <v>0.3889546774358236</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3866351</v>
+        <v>0.3871912</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5980458758222187</v>
+        <v>0.5977993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08407824999999999</v>
+        <v>0.08392083333333335</v>
       </c>
       <c r="N2" t="n">
-        <v>10.84655480891572</v>
+        <v>10.81225050560962</v>
       </c>
       <c r="O2" t="n">
-        <v>2.862907308505379</v>
+        <v>2.869420863597251</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05356848075857206</v>
+        <v>0.05319467292261965</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06920837885335457</v>
+        <v>0.08031067743582365</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4138138</v>
+        <v>0.5551468225641764</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8506273458905896</v>
+        <v>0.9830738000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1483279332818203</v>
+        <v>0.3190583500000002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1014180740827377</v>
+        <v>0.1360119166666667</v>
       </c>
       <c r="N2" t="n">
-        <v>15.13001910209066</v>
+        <v>19.54848800605096</v>
       </c>
       <c r="O2" t="n">
-        <v>7.28386422727996</v>
+        <v>8.898376319884211</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_capacity.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008039699513169421</v>
+        <v>0.1478317803944868</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01367245478734805</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7872570887080735</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1748580890751533</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2801515211182027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375029</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.07526740670137938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5029367001714111</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2112802</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06086267617589177</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.74121210408796</v>
+        <v>3.792158715374083</v>
       </c>
       <c r="O2" t="n">
-        <v>2.672533905045239</v>
+        <v>3.063127347519399</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3598400891073755</v>
+        <v>0.746289333616489</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.040631967026145</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.310098308979648</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3814200199493947</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.2609934465212501</v>
       </c>
       <c r="I2" t="n">
-        <v>2.254565683161922</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.533984616666666</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4455621571574416</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31.35920715565301</v>
+        <v>57.71463482416772</v>
       </c>
       <c r="O2" t="n">
-        <v>21.04174763494304</v>
+        <v>14.14843249898149</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[16_expiring_support_res]_#_inv_capacity.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_capacity.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374969</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0.08392083333333335</v>
       </c>
       <c r="N2" t="n">
-        <v>10.81225050560962</v>
+        <v>10.81225050560964</v>
       </c>
       <c r="O2" t="n">
         <v>2.869420863597251</v>
@@ -699,10 +699,10 @@
         <v>0.1360119166666667</v>
       </c>
       <c r="N2" t="n">
-        <v>19.54848800605096</v>
+        <v>19.548488006051</v>
       </c>
       <c r="O2" t="n">
-        <v>8.898376319884211</v>
+        <v>8.898376319884216</v>
       </c>
     </row>
   </sheetData>
